--- a/excel/Lambda_Functions.xlsx
+++ b/excel/Lambda_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GK47LX/source/office/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20C2EB-E763-5E43-A8EC-5FCEAE899FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9C864-BB8B-4D46-A7F2-9464283CBFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15800" xr2:uid="{0ACB132C-7219-4B66-ACBB-64BA10C47BDC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29000" windowHeight="15800" activeTab="2" xr2:uid="{0ACB132C-7219-4B66-ACBB-64BA10C47BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lambda Basic" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Ann Withers</t>
   </si>
@@ -388,15 +388,6 @@
   </si>
   <si>
     <t>Corrected Skills</t>
-  </si>
-  <si>
-    <t>Excel LAMBDA Function Explained - Xelplus - Leila Gharani</t>
-  </si>
-  <si>
-    <t>Excel RECURSIVE Lambda - Create loops with ZERO coding! - YouTube</t>
-  </si>
-  <si>
-    <t>Excel LAMBDA - HOW &amp; WHEN you Should use it - YouTube</t>
   </si>
 </sst>
 </file>
@@ -975,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BB51C6-FE24-4FCB-BBE2-7DB6E36AACF1}">
   <dimension ref="B1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -987,19 +978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="H1" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="H2" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="H3" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
@@ -1052,11 +1037,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="https://www.xelplus.com/excel-lambda-function-explained/" xr:uid="{BCF98EFE-52A6-EF4C-A871-A3FCCD00AE2E}"/>
-    <hyperlink ref="H2" r:id="rId2" display="https://www.youtube.com/watch?v=L7s6Dni1dG8" xr:uid="{25BF04B4-1BCE-5E4C-AC08-2B6F137D00B4}"/>
-    <hyperlink ref="H1" r:id="rId3" display="https://www.youtube.com/watch?v=Rm4y5UqauRw" xr:uid="{0ECB3D8E-1BBC-6145-A557-42A1E53AFB71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1572,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6206D13F-3278-40DD-986D-2ABBFC792236}">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
